--- a/Excel/Prop.xlsx
+++ b/Excel/Prop.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21708"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A931FE-A455-411A-8CC6-48EA5D681EFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FC63B2-32C0-4014-A45E-EA25BCDB4680}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="23040" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TotleTimes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,6 +139,14 @@
   </si>
   <si>
     <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ui://Common/prop1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ui://Common/prop2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,13 +169,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -186,13 +203,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,17 +506,22 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.375" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="15.125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -496,62 +530,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
+      <c r="K3" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
+      <c r="K4" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -571,7 +605,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>9</v>
@@ -580,7 +614,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -591,7 +625,7 @@
         <v>500</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -620,7 +654,7 @@
         <v>500</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>

--- a/Excel/Prop.xlsx
+++ b/Excel/Prop.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21722"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FC63B2-32C0-4014-A45E-EA25BCDB4680}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF6C1B5-5F0B-44CB-8EB0-F63E45D43E1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13905" yWindow="2475" windowWidth="17460" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,11 +142,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> ui://Common/prop1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ui://Common/prop2</t>
+    <t>ui://Images/exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://Images/gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
